--- a/Isolde.xlsx
+++ b/Isolde.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="316">
   <si>
     <t>Step 1: Create a copy of this spreadsheet</t>
   </si>
@@ -345,13 +345,13 @@
     <t>Character Name</t>
   </si>
   <si>
-    <t>Kaa</t>
+    <t>Isolde</t>
   </si>
   <si>
     <t>Starting Item</t>
   </si>
   <si>
-    <t>Armor of Mocking</t>
+    <t>Icy Song</t>
   </si>
   <si>
     <t>Speed</t>
@@ -360,13 +360,13 @@
     <t>Subclass Name</t>
   </si>
   <si>
-    <t>Shadowscale</t>
+    <t>Soprano</t>
   </si>
   <si>
     <t>Card 1</t>
   </si>
   <si>
-    <t>Deflect</t>
+    <t>annoyingwhistle</t>
   </si>
   <si>
     <t>HP</t>
@@ -381,25 +381,28 @@
     <t>Card 2</t>
   </si>
   <si>
-    <t>Sneaky Strike</t>
+    <t>ice lance</t>
   </si>
   <si>
     <t>HP gained per level</t>
   </si>
   <si>
-    <t>[0,7,7,7,7]</t>
+    <t>[0, 7, 7, 7, 7]</t>
   </si>
   <si>
     <t>Secondary Class</t>
   </si>
   <si>
-    <t>Warrior</t>
+    <t>Mage</t>
   </si>
   <si>
     <t>Card 3</t>
   </si>
   <si>
-    <t>Acrobatic Strike</t>
+    <t>Blessing of Owl</t>
+  </si>
+  <si>
+    <t>sopranoblessingofowl</t>
   </si>
   <si>
     <t>Slashing Resistance</t>
@@ -411,7 +414,7 @@
     <t>Card 4</t>
   </si>
   <si>
-    <t>Disengage</t>
+    <t>chant of accuracy</t>
   </si>
   <si>
     <t>Piercing Resistance</t>
@@ -420,13 +423,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Thuls Sister, bigger and stronger with more martial and tactical training</t>
+    <t>Longing for Tristan, Isolde will sing and blast her way through the chill winds of hel to reach her love.</t>
   </si>
   <si>
     <t>Card 5</t>
   </si>
   <si>
-    <t>Provoke</t>
+    <t>spectralcold</t>
   </si>
   <si>
     <t>Blunt Resistance</t>
@@ -435,13 +438,13 @@
     <t>Strengths</t>
   </si>
   <si>
-    <t>This character controls the battlefield through stealth taunt and evade</t>
+    <t>This character excels at Mind Damage, Songs, and Speed Control</t>
   </si>
   <si>
     <t>Card 6</t>
   </si>
   <si>
-    <t>Smoke Bomb</t>
+    <t>frost nova</t>
   </si>
   <si>
     <t>Fire Resistance</t>
@@ -453,7 +456,7 @@
     <t>Card 7</t>
   </si>
   <si>
-    <t>Distracting Strike</t>
+    <t>Bel Canto</t>
   </si>
   <si>
     <t>Cold Resistance</t>
@@ -471,9 +474,6 @@
     <t>Holy Resistance</t>
   </si>
   <si>
-    <t>: Double evasion then Deal X slashing to target monster where X= EvasionX3.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">"{\n    \"UnitsInDeck\": </t>
   </si>
   <si>
@@ -510,13 +510,13 @@
     <t>Level 1 Trait (Innate)</t>
   </si>
   <si>
-    <t>Quick Reflex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 1 evade at combat start </t>
-  </si>
-  <si>
-    <t>BeginCombat</t>
+    <t>Rhyme of Rime</t>
+  </si>
+  <si>
+    <t>At the start of your turn, apply 1 Sharp, 4 Chill, 4 Insane to all heroes and Monsters.</t>
+  </si>
+  <si>
+    <t>BeginTurnAboutToDealCards</t>
   </si>
   <si>
     <t>trait0</t>
@@ -525,7 +525,7 @@
     <t>Level 2a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>Counter Maneuver</t>
+    <t>Obbligato</t>
   </si>
   <si>
     <t>None</t>
@@ -537,7 +537,7 @@
     <t>Level 2b Trait (Right Hand Side)</t>
   </si>
   <si>
-    <t>Slash and Dash</t>
+    <t>Harbinger of Winter</t>
   </si>
   <si>
     <t>trait1b</t>
@@ -546,10 +546,10 @@
     <t>Level 3a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>Block and Evade</t>
-  </si>
-  <si>
-    <t>Evasion +1. Evasion on you stacks and increases All Damage by 1 per charge. When you play a Defense card, gain 1 Energy and Draw 1. (2 times/turn)</t>
+    <t>Soprano Duality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you play a Song, reduce the cost of the highest cost Elemental Spell card by 1 until discarded. When you play an Elemental Spell, reduce the cost of the highest cost Song by 1 until discarded. (3 times/turn) </t>
   </si>
   <si>
     <t>CastCard</t>
@@ -561,11 +561,10 @@
     <t>Level 3b Trait (Right Hand Side)</t>
   </si>
   <si>
-    <t>Superior Attack Vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth +1. Stealth on heroes graints 15% more damage and 5% more resistances per charge.
- </t>
+    <t>Herald of Minerva</t>
+  </si>
+  <si>
+    <t>Sharp +1. Sharp on enemies reduces All Resistances by 1% per charge.</t>
   </si>
   <si>
     <t>trait2b</t>
@@ -574,7 +573,7 @@
     <t>Level 4a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>All Out</t>
+    <t>Silent Aria</t>
   </si>
   <si>
     <t>trait3a</t>
@@ -583,7 +582,7 @@
     <t>Level 4b Trait (Right Hand Side)</t>
   </si>
   <si>
-    <t>Distraction Plan</t>
+    <t>Virtuosic Breath</t>
   </si>
   <si>
     <t>trait3b</t>
@@ -592,10 +591,10 @@
     <t>Level 5a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>Playing With Fire</t>
-  </si>
-  <si>
-    <t>All Resistances -50%. Evasion on you can't be purged unless specified. Stealth grants 25% additional damage per charge.</t>
+    <t>Cadenza</t>
+  </si>
+  <si>
+    <t>Chill +1, Insane +1. Once per turn, when you play a Cold Spell, add a randomly upgraded Last Requiem to your hand. Cost 0 and Vanish.</t>
   </si>
   <si>
     <t>trait4a</t>
@@ -604,10 +603,10 @@
     <t>Level 5b Trait (Right Hand Side)</t>
   </si>
   <si>
-    <t>Superior stealth</t>
-  </si>
-  <si>
-    <t>Stealth +1. Heroes Only lose 75% stealth charges rounding down when acting in stealth.</t>
+    <t>Prima Donna</t>
+  </si>
+  <si>
+    <t>Sharp +1, Fast +1. Sharp on Monsters reduces all damage by 0.5 per charge. Soprano Duality can be activated an additional time.</t>
   </si>
   <si>
     <t>trait4b</t>
@@ -643,7 +642,7 @@
     <t>BaseGameObjectID</t>
   </si>
   <si>
-    <t>thulsSkinMedium</t>
+    <t>buhomago</t>
   </si>
   <si>
     <t>Portrait PNG name</t>
@@ -685,9 +684,6 @@
     <t>Custom Sprite</t>
   </si>
   <si>
-    <t>skinLizzie</t>
-  </si>
-  <si>
     <t>CardbackOrder</t>
   </si>
   <si>
@@ -784,150 +780,153 @@
     <t>ChallengePack0</t>
   </si>
   <si>
+    <t>skald</t>
+  </si>
+  <si>
+    <t>axman</t>
+  </si>
+  <si>
+    <t>bowman</t>
+  </si>
+  <si>
+    <t>cryomancer</t>
+  </si>
+  <si>
+    <t>devotee</t>
+  </si>
+  <si>
+    <t>Card1</t>
+  </si>
+  <si>
+    <t>ChallengePack1</t>
+  </si>
+  <si>
+    <t>brawler</t>
+  </si>
+  <si>
+    <t>fencer</t>
+  </si>
+  <si>
+    <t>enchanter</t>
+  </si>
+  <si>
+    <t>friar</t>
+  </si>
+  <si>
+    <t>Card2</t>
+  </si>
+  <si>
+    <t>ChallengePack2</t>
+  </si>
+  <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>gunner</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>healer</t>
+  </si>
+  <si>
+    <t>Card3</t>
+  </si>
+  <si>
+    <t>ChallengePack3</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t>hunter</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>heretic</t>
+  </si>
+  <si>
+    <t>Card4</t>
+  </si>
+  <si>
+    <t>ChallengePack4</t>
+  </si>
+  <si>
+    <t>destroyer</t>
+  </si>
+  <si>
     <t>ninja</t>
   </si>
   <si>
-    <t>axman</t>
-  </si>
-  <si>
-    <t>bowman</t>
-  </si>
-  <si>
-    <t>cryomancer</t>
-  </si>
-  <si>
-    <t>devotee</t>
-  </si>
-  <si>
-    <t>Card1</t>
-  </si>
-  <si>
-    <t>ChallengePack1</t>
+    <t>scribe</t>
+  </si>
+  <si>
+    <t>justicar</t>
+  </si>
+  <si>
+    <t>ChallengePack5</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>shadowmancer</t>
+  </si>
+  <si>
+    <t>mentalist</t>
+  </si>
+  <si>
+    <t>ChallengePack6</t>
+  </si>
+  <si>
+    <t>gladiator</t>
+  </si>
+  <si>
+    <t>poisoner</t>
+  </si>
+  <si>
+    <t>sorcerer</t>
+  </si>
+  <si>
+    <t>paladin</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>reaver</t>
+  </si>
+  <si>
+    <t>tempest</t>
+  </si>
+  <si>
+    <t>protector</t>
+  </si>
+  <si>
+    <t>marauder</t>
   </si>
   <si>
     <t>rogue</t>
   </si>
   <si>
-    <t>brawler</t>
-  </si>
-  <si>
-    <t>fencer</t>
-  </si>
-  <si>
-    <t>enchanter</t>
-  </si>
-  <si>
-    <t>friar</t>
-  </si>
-  <si>
-    <t>Card2</t>
-  </si>
-  <si>
-    <t>ChallengePack2</t>
-  </si>
-  <si>
-    <t>commander</t>
-  </si>
-  <si>
-    <t>gunner</t>
-  </si>
-  <si>
-    <t>glacier</t>
-  </si>
-  <si>
-    <t>healer</t>
-  </si>
-  <si>
-    <t>Card3</t>
-  </si>
-  <si>
-    <t>ChallengePack3</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>defender</t>
-  </si>
-  <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>inferno</t>
-  </si>
-  <si>
-    <t>heretic</t>
-  </si>
-  <si>
-    <t>Card4</t>
-  </si>
-  <si>
-    <t>ChallengePack4</t>
-  </si>
-  <si>
-    <t>destroyer</t>
-  </si>
-  <si>
-    <t>scribe</t>
-  </si>
-  <si>
-    <t>justicar</t>
-  </si>
-  <si>
-    <t>ChallengePack5</t>
-  </si>
-  <si>
-    <t>fallen</t>
-  </si>
-  <si>
-    <t>plague</t>
-  </si>
-  <si>
-    <t>shadowmancer</t>
-  </si>
-  <si>
-    <t>mentalist</t>
-  </si>
-  <si>
-    <t>ChallengePack6</t>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>saint</t>
+  </si>
+  <si>
+    <t>swordman</t>
   </si>
   <si>
     <t>scoundrel</t>
   </si>
   <si>
-    <t>gladiator</t>
-  </si>
-  <si>
-    <t>poisoner</t>
-  </si>
-  <si>
-    <t>sorcerer</t>
-  </si>
-  <si>
-    <t>paladin</t>
-  </si>
-  <si>
-    <t>reaver</t>
-  </si>
-  <si>
-    <t>tempest</t>
-  </si>
-  <si>
-    <t>protector</t>
-  </si>
-  <si>
-    <t>marauder</t>
-  </si>
-  <si>
-    <t>witch</t>
-  </si>
-  <si>
-    <t>saint</t>
-  </si>
-  <si>
-    <t>swordman</t>
-  </si>
-  <si>
     <t>wizard</t>
   </si>
   <si>
@@ -937,9 +936,6 @@
     <t>warlord</t>
   </si>
   <si>
-    <t>skald</t>
-  </si>
-  <si>
     <t>shaman</t>
   </si>
   <si>
@@ -955,28 +951,37 @@
     <t>"</t>
   </si>
   <si>
-    <t>intercept</t>
-  </si>
-  <si>
-    <t>repairarmor</t>
-  </si>
-  <si>
-    <t>sneakpeek</t>
-  </si>
-  <si>
-    <t>camouflage</t>
-  </si>
-  <si>
-    <t>faststrike</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>cleave</t>
-  </si>
-  <si>
-    <t>bladedance</t>
+    <t>icelance</t>
+  </si>
+  <si>
+    <t>chantofaccuracy</t>
+  </si>
+  <si>
+    <t>frostnova</t>
+  </si>
+  <si>
+    <t>frostbolt</t>
+  </si>
+  <si>
+    <t>whisperinglies</t>
+  </si>
+  <si>
+    <t>songofcelerity</t>
+  </si>
+  <si>
+    <t>chantofinitiative</t>
+  </si>
+  <si>
+    <t>songofquickness</t>
+  </si>
+  <si>
+    <t>vexingcrescendo</t>
+  </si>
+  <si>
+    <t>icicle</t>
+  </si>
+  <si>
+    <t>nightmare</t>
   </si>
   <si>
     <t>ActionSound</t>
@@ -1192,40 +1197,40 @@
     <t>TimesPerTurn</t>
   </si>
   <si>
-    <t>shadowscaletrait1a</t>
-  </si>
-  <si>
-    <t>shadowscalecountermaneuver</t>
-  </si>
-  <si>
-    <t>shadowscaletrait1b</t>
-  </si>
-  <si>
-    <t>shadowscaleslashanddash</t>
-  </si>
-  <si>
-    <t>shadowscaletrait2a</t>
-  </si>
-  <si>
-    <t>shadowscaletrait2b</t>
-  </si>
-  <si>
-    <t>shadowscaletrait3a</t>
-  </si>
-  <si>
-    <t>shadowscaleallout</t>
-  </si>
-  <si>
-    <t>shadowscaletrait3b</t>
-  </si>
-  <si>
-    <t>shadowscaledistractionplan</t>
-  </si>
-  <si>
-    <t>shadowscaletrait4a</t>
-  </si>
-  <si>
-    <t>shadowscaletrait4b</t>
+    <t>sopranotrait1a</t>
+  </si>
+  <si>
+    <t>sopranoobbligato</t>
+  </si>
+  <si>
+    <t>sopranotrait1b</t>
+  </si>
+  <si>
+    <t>sopranoharbingerofwinter</t>
+  </si>
+  <si>
+    <t>sopranotrait2a</t>
+  </si>
+  <si>
+    <t>sopranotrait2b</t>
+  </si>
+  <si>
+    <t>sopranotrait3a</t>
+  </si>
+  <si>
+    <t>sopranosilentaria</t>
+  </si>
+  <si>
+    <t>sopranotrait3b</t>
+  </si>
+  <si>
+    <t>sopranovirtuosicbreath</t>
+  </si>
+  <si>
+    <t>sopranotrait4a</t>
+  </si>
+  <si>
+    <t>sopranotrait4b</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1914,6 +1919,9 @@
     <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1980,6 +1988,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2003,9 +2014,6 @@
     <xf borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2022,6 +2030,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2046,9 +2057,6 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2067,17 +2075,23 @@
     <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="28" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2099,6 +2113,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="29" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2677,128 +2694,128 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="B1" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="C1" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="G1" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="H1" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="J1" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="97" t="s">
-        <v>157</v>
+      <c r="K1" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="97" t="b">
+      <c r="A2" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="101">
         <v>0.0</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>NewGameObject</f>
-        <v>skinkaa</v>
+        <v>skinisolde</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>concat(lower(substitute(Subclass," ","")),"base")</f>
-        <v>shadowscalebase</v>
-      </c>
-      <c r="E2" s="97" t="s">
+        <v>sopranobase</v>
+      </c>
+      <c r="E2" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="97">
+      <c r="F2" s="101">
         <v>0.0</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>SubclassID</f>
-        <v>shadowscale</v>
+        <v>soprano</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f>Portrait</f>
-        <v>kaaPortrait</v>
+        <v>isoldePortrait</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>PortraitGrande</f>
-        <v>kaaPortraitGrande</v>
+        <v>isoldePortraitGrande</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Visuals!E5</f>
-        <v>kaaSilueta</v>
+        <v>isoldeSilueta</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>SiluetaGrande</f>
-        <v>kaaSiluetaGrande</v>
+        <v>isoldeSiluetaGrande</v>
       </c>
       <c r="M2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
     </row>
     <row r="9">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
     </row>
     <row r="11">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
     </row>
     <row r="13">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
     </row>
     <row r="14">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
     </row>
     <row r="15">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2816,44 +2833,44 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="97" t="s">
+      <c r="A1" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>157</v>
+      <c r="E1" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -2867,7 +2884,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2">index(Cardback_Info[Value],3,1)</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbacksoprano</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(Cardback_Info[Value],4,1)</f>
@@ -2879,11 +2896,11 @@
       </c>
       <c r="F2" s="5" t="str">
         <f t="array" ref="F2">index(Cardback_Info[Value],6,1)</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbacksoprano</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="array" ref="G2">index(Cardback_Info[Value],7,1)</f>
-        <v>shadowscale</v>
+        <v>soprano</v>
       </c>
       <c r="H2" s="5" t="b">
         <f t="array" ref="H2">index(Cardback_Info[Value],8,1)</f>
@@ -2926,40 +2943,40 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="B1" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>301</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f t="array" ref="A2:B10">TraitJson</f>
-        <v>Quick Reflex</v>
+        <v>Rhyme of Rime</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2:C10">TraitFilenames</f>
-        <v>shadowscaletrait0</v>
+        <v>sopranotrait0</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2:D21">Trait_Info[Trait Activation]</f>
-        <v>BeginCombat</v>
+        <v>BeginTurnAboutToDealCards</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2:E21">Trait_Info[Enchantment ID]</f>
@@ -2976,13 +2993,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F3" s="5">
         <v>0.0</v>
@@ -2994,13 +3011,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F4" s="5">
         <v>0.0</v>
@@ -3014,14 +3031,14 @@
         <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -3032,7 +3049,7 @@
         <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>81</v>
@@ -3048,13 +3065,13 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F7" s="5">
         <v>0.0</v>
@@ -3066,13 +3083,13 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" s="5">
         <v>0.0</v>
@@ -3086,14 +3103,14 @@
         <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -3104,7 +3121,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>81</v>
@@ -3115,59 +3132,59 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12">
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13">
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14">
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15">
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16">
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17">
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18">
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19">
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20">
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21">
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3262,7 +3279,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="27" t="str">
         <f>concat(SubclassID,lower(Substitute(SUBSTITUTE(E3," ",""),"'","")))</f>
-        <v>shadowscalearmorofmocking</v>
+        <v>sopranoicysong</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="14"/>
@@ -3270,7 +3287,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="23">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -3290,19 +3307,19 @@
         <v>4.0</v>
       </c>
       <c r="G4" s="27" t="str">
-        <f t="shared" ref="G4:G9" si="1">lower(Substitute(SUBSTITUTE(E4," ",""),"'",""))</f>
-        <v>deflect</v>
+        <f t="shared" ref="G4:G5" si="1">lower(Substitute(SUBSTITUTE(E4," ",""),"'",""))</f>
+        <v>annoyingwhistle</v>
       </c>
       <c r="H4" s="29" t="str">
         <f t="shared" ref="H4:H10" si="2">CONCATENATE($H$13,F4,$H$14,G4,$H$15)</f>
-        <v>"{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"deflect\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"annoyingwhistle\"\n}"</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="23">
-        <v>65.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="5">
@@ -3323,11 +3340,11 @@
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>sneakystrike</v>
+        <v>icelance</v>
       </c>
       <c r="H5" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"sneakystrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"icelance\"\n}"</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="24" t="s">
@@ -3353,204 +3370,200 @@
       <c r="F6" s="25">
         <v>2.0</v>
       </c>
-      <c r="G6" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>acrobaticstrike</v>
+      <c r="G6" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"acrobaticstrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"sopranoblessingofowl\"\n}"</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="M6" s="31" t="str">
+        <v>5.0</v>
+      </c>
+      <c r="M6" s="32" t="str">
         <f>HpLevel</f>
-        <v>[0,7,7,7,7]</v>
-      </c>
-      <c r="N6" s="31" t="str">
+        <v>[0, 7, 7, 7, 7]</v>
+      </c>
+      <c r="N6" s="32" t="str">
         <f>if(left(M6,1)="[",M6,CONCATENATE("[",M6))</f>
-        <v>[0,7,7,7,7]</v>
-      </c>
-      <c r="O6" s="31" t="str">
+        <v>[0, 7, 7, 7, 7]</v>
+      </c>
+      <c r="O6" s="32" t="str">
         <f>if(right(N6,1)="]",N6,CONCATENATE(N6,"]"))</f>
-        <v>[0,7,7,7,7]</v>
+        <v>[0, 7, 7, 7, 7]</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="30" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="25">
         <v>2.0</v>
       </c>
       <c r="G7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>disengage</v>
+        <f t="shared" ref="G7:G9" si="3">lower(Substitute(SUBSTITUTE(E7," ",""),"'",""))</f>
+        <v>chantofaccuracy</v>
       </c>
       <c r="H7" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"disengage\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"chantofaccuracy\"\n}"</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="23">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="25">
         <v>2.0</v>
       </c>
       <c r="G8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>provoke</v>
+        <f t="shared" si="3"/>
+        <v>spectralcold</v>
       </c>
       <c r="H8" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"provoke\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"spectralcold\"\n}"</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="23">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="25">
         <v>1.0</v>
       </c>
       <c r="G9" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>smokebomb</v>
+        <f t="shared" si="3"/>
+        <v>frostnova</v>
       </c>
       <c r="H9" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"smokebomb\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"frostnova\"\n}"</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="23">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="33"/>
+      <c r="A10" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="34"/>
       <c r="D10" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="34">
+        <v>57</v>
+      </c>
+      <c r="F10" s="35">
         <v>1.0</v>
       </c>
       <c r="G10" s="27" t="str">
         <f>concat(SubclassID,lower(Substitute(SUBSTITUTE(E10," ",""),"'","")))</f>
-        <v>shadowscaledistractingstrike</v>
+        <v>sopranobelcanto</v>
       </c>
       <c r="H10" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"shadowscaledistractingstrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"sopranobelcanto\"\n}"</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="23">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="D11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36">
+      <c r="D11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37">
         <f>sum(F4:F10)</f>
         <v>15</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="14"/>
       <c r="J11" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="23">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13"/>
-      <c r="B12" s="39" t="str">
+      <c r="B12" s="40" t="str">
         <f>lower(SUBSTITUTE(B4," ",""))</f>
-        <v>shadowscale</v>
+        <v>soprano</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="23">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="41" t="s">
         <v>63</v>
       </c>
       <c r="I13" s="14"/>
@@ -3558,11 +3571,11 @@
         <v>64</v>
       </c>
       <c r="K13" s="23">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="41" t="s">
         <v>65</v>
       </c>
       <c r="I14" s="14"/>
@@ -3570,29 +3583,29 @@
         <v>66</v>
       </c>
       <c r="K14" s="23">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="43">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="34">
         <v>3.0</v>
       </c>
     </row>
@@ -3621,56 +3634,56 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
     </row>
@@ -8555,29 +8568,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46"/>
+      <c r="A1" s="47"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="13"/>
@@ -8593,13 +8606,13 @@
       <c r="C3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="25">
         <v>0.0</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="13" t="s">
         <v>78</v>
       </c>
@@ -8612,16 +8625,17 @@
       <c r="B4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="53" t="str">
+      <c r="E4" s="57">
+        <f t="shared" ref="E4:E5" si="1">if(EQ(D4,"None"),0,"&lt;0&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="54" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B4," ","")))</f>
-        <v>shadowscalecountermaneuver</v>
+        <v>sopranoobbligato</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>82</v>
@@ -8635,16 +8649,17 @@
       <c r="B5" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="53" t="str">
+      <c r="E5" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="54" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B5," ","")))</f>
-        <v>shadowscaleslashanddash</v>
+        <v>sopranoharbingerofwinter</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>85</v>
@@ -8661,13 +8676,13 @@
       <c r="C6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="53"/>
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="54"/>
       <c r="G6" s="13" t="s">
         <v>90</v>
       </c>
@@ -8683,13 +8698,13 @@
       <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="25">
         <v>0.0</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="13" t="s">
         <v>94</v>
       </c>
@@ -8702,16 +8717,17 @@
       <c r="B8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="53" t="str">
+      <c r="E8" s="57">
+        <f t="shared" ref="E8:E9" si="2">if(EQ(D8,"None"),0,"&lt;0&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="54" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B8," ","")))</f>
-        <v>shadowscaleallout</v>
+        <v>sopranosilentaria</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>97</v>
@@ -8725,16 +8741,17 @@
       <c r="B9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="53" t="str">
+      <c r="E9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="54" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B9," ","")))</f>
-        <v>shadowscaledistractionplan</v>
+        <v>sopranovirtuosicbreath</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>100</v>
@@ -8751,13 +8768,13 @@
       <c r="C10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>81</v>
+      <c r="D10" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="53"/>
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="54"/>
       <c r="G10" s="13" t="s">
         <v>104</v>
       </c>
@@ -8773,148 +8790,148 @@
       <c r="C11" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="25">
         <v>0.0</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="13" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="A12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G3)</f>
-        <v>shadowscaletrait0</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+        <v>sopranotrait0</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="62" t="str">
+      <c r="B15" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G4)</f>
-        <v>shadowscaletrait1a</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>sopranotrait1a</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
       <c r="G15" s="13"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="62" t="str">
+      <c r="B16" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G5)</f>
-        <v>shadowscaletrait1b</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+        <v>sopranotrait1b</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="62" t="str">
+      <c r="B17" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G6)</f>
-        <v>shadowscaletrait2a</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>sopranotrait2a</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="G17" s="13"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="62" t="str">
+      <c r="B18" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G7)</f>
-        <v>shadowscaletrait2b</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+        <v>sopranotrait2b</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="G18" s="13"/>
       <c r="I18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="62" t="str">
+      <c r="B19" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G8)</f>
-        <v>shadowscaletrait3a</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>sopranotrait3a</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
       <c r="G19" s="13"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="62" t="str">
+      <c r="B20" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G9)</f>
-        <v>shadowscaletrait3b</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+        <v>sopranotrait3b</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="G20" s="13"/>
       <c r="I20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="62" t="str">
+      <c r="B21" s="55" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G10)</f>
-        <v>shadowscaletrait4a</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+        <v>sopranotrait4a</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
       <c r="G21" s="13"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="35" t="str">
+      <c r="B22" s="36" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G11)</f>
-        <v>shadowscaletrait4b</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+        <v>sopranotrait4b</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="G22" s="13"/>
       <c r="I22" s="13"/>
     </row>
@@ -11961,207 +11978,205 @@
       <c r="B3" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="65" t="str">
+      <c r="E3" s="66" t="str">
         <f>concat(lower(substitute(Character," ","")),"Portrait")</f>
-        <v>kaaPortrait</v>
-      </c>
-      <c r="G3" s="41" t="s">
+        <v>isoldePortrait</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="43">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="66" t="str">
+      <c r="B4" s="67" t="str">
         <f>concat("skin",lower(Character))</f>
-        <v>skinkaa</v>
-      </c>
-      <c r="D4" s="41" t="s">
+        <v>skinisolde</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="65" t="str">
+      <c r="E4" s="66" t="str">
         <f>concat(lower(substitute(Character," ","")),"PortraitGrande")</f>
-        <v>kaaPortraitGrande</v>
-      </c>
-      <c r="G4" s="41" t="s">
+        <v>isoldePortraitGrande</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="67" t="b">
+      <c r="H4" s="68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>1.0</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="65" t="str">
+      <c r="E5" s="66" t="str">
         <f>concat(lower(substitute(Character," ","")),"Silueta")</f>
-        <v>kaaSilueta</v>
-      </c>
-      <c r="G5" s="41" t="s">
+        <v>isoldeSilueta</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="66" t="str">
+      <c r="H5" s="67" t="str">
         <f>concat("cardback",lower(substitute(Subclass," ","")))</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbacksoprano</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="42" t="b">
+      <c r="B6" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="69" t="str">
+        <f>concat(lower(substitute(Character," ","")),"SiluetaGrande")</f>
+        <v>isoldeSiluetaGrande</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="G7" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1000.0</v>
+      </c>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="66" t="str">
+        <f>concat("cardback",lower(substitute(Subclass," ","")))</f>
+        <v>cardbacksoprano</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="67" t="str">
+        <f>SubclassID</f>
+        <v>soprano</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="68" t="str">
-        <f>concat(lower(substitute(Character," ","")),"SiluetaGrande")</f>
-        <v>kaaSiluetaGrande</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="42">
-        <v>1000.0</v>
-      </c>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="65" t="str">
-        <f>concat("cardback",lower(substitute(Subclass," ","")))</f>
-        <v>cardbackshadowscale</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="66" t="str">
-        <f>SubclassID</f>
-        <v>shadowscale</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="41" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="67" t="b">
+      <c r="B11" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="G11" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="G11" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="42">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="41" t="s">
+    <row r="14">
+      <c r="A14" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="73" t="s">
+      <c r="B14" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="G14" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="73" t="s">
+      <c r="B15" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="G15" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="70"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
@@ -12207,291 +12222,290 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46"/>
+      <c r="A1" s="47"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="H1" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="J2" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="83" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="41" t="s">
+      <c r="B3" s="57" t="str">
+        <f>General!E10</f>
+        <v>Bel Canto</v>
+      </c>
+      <c r="C3" s="67" t="str">
+        <f t="array" ref="C3">index(Starter_Cards[Card ID],8)</f>
+        <v>sopranobelcanto</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="54" t="str">
-        <f>General!E10</f>
-        <v>Distracting Strike</v>
-      </c>
-      <c r="C3" s="66" t="str">
-        <f t="array" ref="C3">index(Starter_Cards[Card ID],8)</f>
-        <v>shadowscaledistractingstrike</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="I3" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="J3" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="K3" s="84" t="s">
         <v>169</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="67" t="str">
+        <f t="shared" ref="C4:C5" si="1">lower(SUBSTITUTE(B4," ",""))</f>
+        <v>annoyingwhistle</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="66" t="str">
-        <f t="shared" ref="C4:C7" si="1">lower(SUBSTITUTE(B4," ",""))</f>
-        <v>deflect</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="I4" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="J4" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>175</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>icelance</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>acrobaticstrike</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="I5" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="J5" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="81" t="s">
+      <c r="K5" s="84" t="s">
         <v>181</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="83" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>disengage</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="J6" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="K6" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="81" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="B7" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="89" t="str">
+        <f>lower(SUBSTITUTE(B7," ",""))</f>
+        <v>spectralcold</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="F7" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="81" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="84" t="s">
+      <c r="I7" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="86" t="str">
-        <f t="shared" si="1"/>
-        <v>provoke</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="J7" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="80" t="s">
+      <c r="K7" s="84" t="s">
         <v>193</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="14"/>
       <c r="E8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="80" t="s">
+      <c r="J8" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="K8" s="84" t="s">
         <v>198</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="83" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="14"/>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="J9" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="K9" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="81" t="s">
+    </row>
+    <row r="10">
+      <c r="H10" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="I10" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="J10" s="83" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="H10" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="81" t="s">
+      <c r="K10" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="82" t="s">
+    </row>
+    <row r="11">
+      <c r="H11" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="I11" s="82" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="H11" s="80" t="s">
+      <c r="J11" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="I11" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="82" t="s">
+      <c r="K11" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="83" t="s">
+    </row>
+    <row r="12">
+      <c r="H12" s="81" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="H12" s="80" t="s">
+      <c r="I12" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="I12" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="84" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13">
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="83" t="s">
+    </row>
+    <row r="14">
+      <c r="K14" s="91" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="K14" s="88" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -12534,213 +12548,213 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="91" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="95" t="str">
+        <f t="array" ref="A2">index(Starter_Cards[Card Name],8)</f>
+        <v>Bel Canto</v>
+      </c>
+      <c r="B2" s="55" t="str">
+        <f t="shared" ref="B2:B16" si="1">CONCATENATE($F$2,C2,$F$2)</f>
+        <v>"sopranobelcanto"</v>
+      </c>
+      <c r="C2" s="96" t="str">
+        <f t="array" ref="C2">index(Starter_Cards[Card ID],8)</f>
+        <v>sopranobelcanto</v>
+      </c>
+      <c r="F2" s="97" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="92" t="str">
-        <f t="array" ref="A2">index(Starter_Cards[Card Name],8)</f>
-        <v>Distracting Strike</v>
-      </c>
-      <c r="B2" s="62" t="str">
-        <f t="shared" ref="B2:B16" si="1">CONCATENATE($F$2,C2,$F$2)</f>
-        <v>"shadowscaledistractingstrike"</v>
-      </c>
-      <c r="C2" s="93" t="str">
-        <f t="array" ref="C2">index(Starter_Cards[Card ID],8)</f>
-        <v>shadowscaledistractingstrike</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"deflect"</v>
+        <v>"annoyingwhistle"</v>
       </c>
       <c r="C3" s="27" t="str">
         <f t="shared" ref="C3:C16" si="2">lower(Substitute(SUBSTITUTE(A3," ",""),"'",""))</f>
-        <v>deflect</v>
+        <v>annoyingwhistle</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="62" t="str">
+      <c r="A4" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"sneakystrike"</v>
+        <v>"icelance"</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>sneakystrike</v>
+        <v>icelance</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="62" t="str">
+      <c r="A5" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"acrobaticstrike"</v>
+        <v>"sopranoblessingofowl"</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>acrobaticstrike</v>
+        <v>sopranoblessingofowl</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="62" t="str">
+      <c r="A6" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"disengage"</v>
+        <v>"chantofaccuracy"</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>disengage</v>
+        <v>chantofaccuracy</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="62" t="str">
+      <c r="A7" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"provoke"</v>
+        <v>"spectralcold"</v>
       </c>
       <c r="C7" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>provoke</v>
+        <v>spectralcold</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="62" t="str">
+      <c r="A8" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"smokebomb"</v>
+        <v>"frostnova"</v>
       </c>
       <c r="C8" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>smokebomb</v>
+        <v>frostnova</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="62" t="str">
+      <c r="A9" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"intercept"</v>
+        <v>"frostbolt"</v>
       </c>
       <c r="C9" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>intercept</v>
+        <v>frostbolt</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="62" t="str">
+      <c r="A10" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"repairarmor"</v>
+        <v>"whisperinglies"</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>repairarmor</v>
+        <v>whisperinglies</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="62" t="str">
+      <c r="A11" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"sneakpeek"</v>
+        <v>"songofcelerity"</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>sneakpeek</v>
+        <v>songofcelerity</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="62" t="str">
+      <c r="A12" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"camouflage"</v>
+        <v>"chantofinitiative"</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>camouflage</v>
+        <v>chantofinitiative</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="95" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="62" t="str">
+      <c r="A13" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"faststrike"</v>
+        <v>"songofquickness"</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>faststrike</v>
+        <v>songofquickness</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="62" t="str">
+      <c r="A14" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"slash"</v>
+        <v>"vexingcrescendo"</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>slash</v>
+        <v>vexingcrescendo</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="62" t="str">
+      <c r="A15" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>"cleave"</v>
+        <v>"icicle"</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>cleave</v>
+        <v>icicle</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="35" t="str">
+      <c r="A16" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>"bladedance"</v>
-      </c>
-      <c r="C16" s="86" t="str">
+        <v>"nightmare"</v>
+      </c>
+      <c r="C16" s="89" t="str">
         <f t="shared" si="2"/>
-        <v>bladedance</v>
+        <v>nightmare</v>
       </c>
     </row>
   </sheetData>
@@ -12773,216 +12787,216 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA1" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB1" s="97" t="s">
         <v>272</v>
       </c>
+      <c r="BA1" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB1" s="101" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98" t="b">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>concatenate("[",textjoin(", ",TRUE,Starter_Cards[Json]),"]")</f>
-        <v>["{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"deflect\"\n}", "{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"sneakystrike\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"acrobaticstrike\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"disengage\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"provoke\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"smokebomb\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"shadowscaledistractingstrike\"\n}"]</v>
+        <v>["{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"annoyingwhistle\"\n}", "{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"icelance\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"sopranoblessingofowl\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"chantofaccuracy\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"spectralcold\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"frostnova\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"sopranobelcanto\"\n}"]</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(OC_Pack_Names[Value],1,1)</f>
-        <v>ninja</v>
+        <v>skald</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2">index(OC_Pack_Names[Value],2,1)</f>
-        <v>rogue</v>
+        <v>cryomancer</v>
       </c>
       <c r="F2" s="5" t="str">
         <f t="array" ref="F2">index(OC_Pack_Names[Value],3,1)</f>
-        <v>commander</v>
+        <v>bard</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="array" ref="G2">index(OC_Pack_Names[Value],4,1)</f>
-        <v>guardian</v>
+        <v>glacier</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="array" ref="H2">index(OC_Pack_Names[Value],5,1)</f>
-        <v>defender</v>
+        <v>hunter</v>
       </c>
       <c r="I2" s="5" t="str">
         <f t="array" ref="I2">index(OC_Pack_Names[Value],6,1)</f>
-        <v>hunter</v>
+        <v>enchanter</v>
       </c>
       <c r="J2" s="5" t="str">
         <f t="array" ref="J2">index(OC_Pack_Names[Value],7,1)</f>
-        <v>scoundrel</v>
+        <v>scribe</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Description</f>
-        <v>Thuls Sister, bigger and stronger with more martial and tactical training</v>
+        <v>Longing for Tristan, Isolde will sing and blast her way through the chill winds of hel to reach her love.</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>Strengths</f>
-        <v>This character controls the battlefield through stealth taunt and evade</v>
+        <v>This character excels at Mind Damage, Songs, and Speed Control</v>
       </c>
       <c r="M2" s="5" t="str">
         <f>Character</f>
-        <v>Kaa</v>
+        <v>Isolde</v>
       </c>
       <c r="N2" s="5">
         <f>Energy</f>
@@ -12996,10 +13010,10 @@
         <f>Female</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="98">
+      <c r="Q2" s="102">
         <v>0.0</v>
       </c>
-      <c r="R2" s="98">
+      <c r="R2" s="102">
         <v>3.40000009536743</v>
       </c>
       <c r="S2" s="5" t="str">
@@ -13008,7 +13022,7 @@
       </c>
       <c r="T2" s="5" t="str">
         <f>lower(SecondaryClass)</f>
-        <v>warrior</v>
+        <v>mage</v>
       </c>
       <c r="U2" s="5" t="str">
         <f>HitSound</f>
@@ -13016,453 +13030,453 @@
       </c>
       <c r="V2" s="5">
         <f>Hp</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="W2" s="5" t="str">
         <f>lower(substitute(Subclass," ",""))</f>
-        <v>shadowscale</v>
+        <v>soprano</v>
       </c>
       <c r="X2" s="5" t="str">
         <f t="array" ref="X2">index(Starter_Cards[Card ID],1,1)</f>
-        <v>shadowscalearmorofmocking</v>
+        <v>sopranoicysong</v>
       </c>
       <c r="Y2" s="5" t="str">
         <f>HPLevelList</f>
-        <v>[0,7,7,7,7]</v>
-      </c>
-      <c r="Z2" s="98">
+        <v>[0, 7, 7, 7, 7]</v>
+      </c>
+      <c r="Z2" s="102">
         <v>5.0</v>
       </c>
       <c r="AA2" s="5">
         <f>Slash</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="5">
         <f>Blunt</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="5">
         <f>Pierce</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="5">
         <f>Fire</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AE2" s="5">
         <f>Cold</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="5">
         <f>Lightning</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="5">
         <f>Holy</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH2" s="5">
         <f>Shadow</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5">
         <f>Mind</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5">
         <f>Speed</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK2" s="5" t="str">
         <f>Silueta</f>
-        <v>kaaSilueta</v>
-      </c>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98">
+        <v>isoldeSilueta</v>
+      </c>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102">
         <v>0.100000001490116</v>
       </c>
       <c r="AR2" s="5" t="str">
         <f>Subclass</f>
-        <v>Shadowscale</v>
+        <v>Soprano</v>
       </c>
       <c r="AS2" s="5" t="str">
         <f t="array" ref="AS2">index(TraitFilenames,1,1)</f>
-        <v>shadowscaletrait0</v>
+        <v>sopranotrait0</v>
       </c>
       <c r="AT2" s="5" t="str">
         <f t="array" ref="AT2">index(TraitFilenames,2,1)</f>
-        <v>shadowscaletrait1a</v>
+        <v>sopranotrait1a</v>
       </c>
       <c r="AU2" s="5" t="str">
         <f t="array" ref="AU2">index(TraitFilenames,3,1)</f>
-        <v>shadowscaletrait1b</v>
+        <v>sopranotrait1b</v>
       </c>
       <c r="AV2" s="5" t="str">
         <f t="array" ref="AV2">index(TraitFilenames,4,1)</f>
-        <v>shadowscaletrait2a</v>
+        <v>sopranotrait2a</v>
       </c>
       <c r="AW2" s="5" t="str">
         <f t="array" ref="AW2">index(TraitFilenames,5,1)</f>
-        <v>shadowscaletrait2b</v>
+        <v>sopranotrait2b</v>
       </c>
       <c r="AX2" s="5" t="str">
         <f t="array" ref="AX2">index(TraitFilenames,6,1)</f>
-        <v>shadowscaletrait3a</v>
+        <v>sopranotrait3a</v>
       </c>
       <c r="AY2" s="5" t="str">
         <f t="array" ref="AY2">index(TraitFilenames,7,1)</f>
-        <v>shadowscaletrait3b</v>
+        <v>sopranotrait3b</v>
       </c>
       <c r="AZ2" s="5" t="str">
         <f t="array" ref="AZ2">index(TraitFilenames,8,1)</f>
-        <v>shadowscaletrait4a</v>
+        <v>sopranotrait4a</v>
       </c>
       <c r="BA2" s="5" t="str">
         <f t="array" ref="BA2">index(TraitFilenames,9,1)</f>
-        <v>shadowscaletrait4b</v>
+        <v>sopranotrait4b</v>
       </c>
       <c r="BB2" s="5" t="str">
         <f>concatenate("[",textjoin(", ",TRUE,SingularityDeck[Card Strings]),"]")</f>
-        <v>["shadowscaledistractingstrike", "deflect", "sneakystrike", "acrobaticstrike", "disengage", "provoke", "smokebomb", "intercept", "repairarmor", "sneakpeek", "camouflage", "faststrike", "slash", "cleave", "bladedance"]</v>
+        <v>["sopranobelcanto", "annoyingwhistle", "icelance", "sopranoblessingofowl", "chantofaccuracy", "spectralcold", "frostnova", "frostbolt", "whisperinglies", "songofcelerity", "chantofinitiative", "songofquickness", "vexingcrescendo", "icicle", "nightmare"]</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="A6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7">
-      <c r="A7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="A8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9">
-      <c r="A9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="A9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="A10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11">
-      <c r="A11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13">
-      <c r="A13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14">
-      <c r="A14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="A14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15">
-      <c r="A15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16">
-      <c r="A16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17">
-      <c r="A17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18">
-      <c r="A18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19">
-      <c r="A19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="A19" s="46"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20">
-      <c r="A20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="A20" s="46"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21">
-      <c r="A21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22">
-      <c r="A22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23">
-      <c r="A23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24">
-      <c r="A24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25">
-      <c r="A25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26">
-      <c r="A26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="A26" s="46"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27">
-      <c r="A27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28">
-      <c r="A28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29">
-      <c r="A29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30">
-      <c r="A30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="A30" s="46"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31">
-      <c r="A31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="A31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32">
-      <c r="A32" s="45"/>
-      <c r="L32" s="45"/>
+      <c r="A32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33">
-      <c r="A33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="A33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34">
-      <c r="A34" s="45"/>
-      <c r="L34" s="45"/>
+      <c r="A34" s="46"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35">
-      <c r="A35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36">
-      <c r="A36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="A36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37">
-      <c r="A37" s="45"/>
-      <c r="L37" s="45"/>
+      <c r="A37" s="46"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38">
-      <c r="A38" s="45"/>
-      <c r="L38" s="45"/>
+      <c r="A38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39">
-      <c r="A39" s="45"/>
-      <c r="L39" s="45"/>
+      <c r="A39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40">
-      <c r="A40" s="45"/>
-      <c r="L40" s="45"/>
+      <c r="A40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41">
-      <c r="A41" s="45"/>
-      <c r="L41" s="45"/>
+      <c r="A41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42">
-      <c r="A42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="A42" s="46"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43">
-      <c r="A43" s="45"/>
-      <c r="L43" s="45"/>
+      <c r="A43" s="46"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44">
-      <c r="A44" s="45"/>
-      <c r="L44" s="45"/>
+      <c r="A44" s="46"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45">
-      <c r="A45" s="45"/>
-      <c r="L45" s="45"/>
+      <c r="A45" s="46"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46">
-      <c r="A46" s="45"/>
-      <c r="L46" s="45"/>
+      <c r="A46" s="46"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47">
-      <c r="A47" s="45"/>
-      <c r="L47" s="45"/>
+      <c r="A47" s="46"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48">
-      <c r="A48" s="45"/>
-      <c r="L48" s="45"/>
+      <c r="A48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49">
-      <c r="A49" s="45"/>
-      <c r="L49" s="45"/>
+      <c r="A49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50">
-      <c r="A50" s="45"/>
-      <c r="L50" s="45"/>
+      <c r="A50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51">
-      <c r="A51" s="45"/>
-      <c r="L51" s="45"/>
+      <c r="A51" s="46"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="52">
-      <c r="A52" s="45"/>
-      <c r="L52" s="45"/>
+      <c r="A52" s="46"/>
+      <c r="L52" s="46"/>
     </row>
     <row r="53">
-      <c r="A53" s="45"/>
-      <c r="L53" s="45"/>
+      <c r="A53" s="46"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54">
-      <c r="A54" s="45"/>
-      <c r="L54" s="45"/>
+      <c r="A54" s="46"/>
+      <c r="L54" s="46"/>
     </row>
     <row r="55">
-      <c r="A55" s="45"/>
-      <c r="L55" s="45"/>
+      <c r="A55" s="46"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56">
-      <c r="A56" s="45"/>
-      <c r="L56" s="45"/>
+      <c r="A56" s="46"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57">
-      <c r="A57" s="45"/>
-      <c r="L57" s="45"/>
+      <c r="A57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58">
-      <c r="A58" s="45"/>
-      <c r="L58" s="45"/>
+      <c r="A58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59">
-      <c r="A59" s="45"/>
-      <c r="L59" s="45"/>
+      <c r="A59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60">
-      <c r="A60" s="45"/>
-      <c r="L60" s="45"/>
+      <c r="A60" s="46"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61">
-      <c r="A61" s="45"/>
-      <c r="L61" s="45"/>
+      <c r="A61" s="46"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62">
-      <c r="A62" s="45"/>
-      <c r="L62" s="45"/>
+      <c r="A62" s="46"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63">
-      <c r="A63" s="45"/>
-      <c r="L63" s="45"/>
+      <c r="A63" s="46"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64">
-      <c r="A64" s="45"/>
-      <c r="L64" s="45"/>
+      <c r="A64" s="46"/>
+      <c r="L64" s="46"/>
     </row>
     <row r="65">
-      <c r="A65" s="45"/>
-      <c r="L65" s="45"/>
+      <c r="A65" s="46"/>
+      <c r="L65" s="46"/>
     </row>
     <row r="66">
-      <c r="A66" s="45"/>
-      <c r="L66" s="45"/>
+      <c r="A66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67">
-      <c r="A67" s="45"/>
-      <c r="L67" s="45"/>
+      <c r="A67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68">
-      <c r="A68" s="45"/>
-      <c r="L68" s="45"/>
+      <c r="A68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69">
-      <c r="A69" s="45"/>
-      <c r="L69" s="45"/>
+      <c r="A69" s="46"/>
+      <c r="L69" s="46"/>
     </row>
     <row r="70">
-      <c r="A70" s="45"/>
-      <c r="L70" s="45"/>
+      <c r="A70" s="46"/>
+      <c r="L70" s="46"/>
     </row>
     <row r="71">
-      <c r="A71" s="45"/>
-      <c r="L71" s="45"/>
+      <c r="A71" s="46"/>
+      <c r="L71" s="46"/>
     </row>
     <row r="72">
-      <c r="L72" s="45"/>
+      <c r="L72" s="46"/>
     </row>
     <row r="73">
-      <c r="L73" s="45"/>
+      <c r="L73" s="46"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13480,66 +13494,66 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="97" t="s">
+      <c r="A1" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="G1" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="I1" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="J1" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="K1" s="101" t="s">
         <v>280</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f t="array" ref="A2">index(Obelisk_Challenge_Starter_Pack[Card ID],1,1)</f>
-        <v>shadowscaledistractingstrike</v>
+        <v>sopranobelcanto</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="array" ref="B2">index(Obelisk_Challenge_Starter_Pack[Card ID],2,1)</f>
-        <v>deflect</v>
+        <v>annoyingwhistle</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2">index(Obelisk_Challenge_Starter_Pack[Card ID],3,1)</f>
-        <v>acrobaticstrike</v>
+        <v>icelance</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(Obelisk_Challenge_Starter_Pack[Card ID],4,1)</f>
-        <v>disengage</v>
+        <v>sopranoblessingofowl</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2">index(Obelisk_Challenge_Starter_Pack[Card ID],5,1)</f>
-        <v>provoke</v>
+        <v>spectralcold</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -13550,64 +13564,64 @@
       </c>
       <c r="J2" s="5" t="str">
         <f>lower(substitute(Character," ",""))</f>
-        <v>kaa</v>
+        <v>isolde</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Character</f>
-        <v>Kaa</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>281</v>
+        <v>Isolde</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>283</v>
       </c>
       <c r="M2" s="5" t="str">
         <f>lower(substitute(Subclass," ",""))</f>
-        <v>shadowscale</v>
+        <v>soprano</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
     </row>
     <row r="9">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
     </row>
     <row r="11">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
     </row>
     <row r="13">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
     </row>
     <row r="14">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
     </row>
     <row r="15">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
     </row>
     <row r="16">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
     </row>
     <row r="17">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13625,37 +13639,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="97" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="97" t="s">
+      <c r="C1" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>285</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f>NewGameObject</f>
-        <v>skinkaa</v>
+        <v>skinisolde</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="array" ref="B2">index(GameObject_Info[Value],1,1)</f>
-        <v>thulsSkinMedium</v>
+        <v>buhomago</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>CustomSprite</f>
-        <v>skinLizzie</v>
+        <v/>
       </c>
       <c r="D2" s="5">
         <f>ScaleFactor</f>
@@ -13667,32 +13681,32 @@
       </c>
       <c r="F2" s="5" t="b">
         <f>Flip</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
     </row>
     <row r="9">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
     </row>
     <row r="10">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
